--- a/Prototipos Excel/Rescisao/Rescisao Simplificada Automatizada.xlsx
+++ b/Prototipos Excel/Rescisao/Rescisao Simplificada Automatizada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr saveExternalLinkValues="0" codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\App_Tecnical_Arkive\Prototipos Excel\Rescisao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -732,53 +732,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -793,6 +746,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,6 +769,8 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -824,10 +788,49 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1244,8 +1247,8 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1265,18 +1268,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1292,19 +1295,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="2"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1386,158 +1389,158 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="7">
         <f>IF(AND(Cadastro!F4&gt;0,Cadastro!F4&lt;&gt;"Erro Valor Informado esta errado"),Cadastro!F4,0)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="str">
+      <c r="A11" s="78" t="str">
         <f>IF(Cadastro!B14 &gt; 0, CONCATENATE("13º SALARIO  - ",Cadastro!B14,"/12 Avos"),"13º SALARIO  - ")</f>
         <v>13º SALARIO  - 5/12 Avos</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7">
         <f>Cadastro!D4</f>
         <v>416.66666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="81" t="str">
         <f>IF(Cadastro!B15 &gt; 0, CONCATENATE("FÉRIAS PROPORCIONAIS - ",Cadastro!B16," - ",Cadastro!B15,"/12 Avos"),"FÉRIAS PROPORCIONAIS - ")</f>
         <v>FÉRIAS PROPORCIONAIS - 01/01/2014 a 31/01/2014 - 1/12 Avos</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="7">
         <f>Cadastro!D7</f>
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="str">
+      <c r="A13" s="78" t="str">
         <f>IF(Cadastro!B17&gt;0,CONCATENATE("FÉRIAS VENCIDAS REF - ",Cadastro!B17," ANO(S)"),"FÉRIAS VENCIDAS REF - ")</f>
         <v>FÉRIAS VENCIDAS REF - 2 ANO(S)</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="7">
         <f>Cadastro!E7</f>
         <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="7">
         <f>Cadastro!F7</f>
         <v>666.66666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="str">
+      <c r="A15" s="65" t="str">
         <f>IF(Cadastro!B15 &gt; 0, CONCATENATE("FGTS QUINTAÇÃO MESES CORRIGIDOS - ",Cadastro!B19,IF(Cadastro!B19&gt;1," Meses"," Mês")),"FGTS QUINTAÇÃO MESES CORRIGIDOS")</f>
         <v>FGTS QUINTAÇÃO MESES CORRIGIDOS - 6 Meses</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="7">
         <f>Cadastro!D10</f>
         <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="7">
         <f>J15*0.4</f>
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="str">
+      <c r="A17" s="78" t="str">
         <f>IF(Cadastro!B18&gt;0,CONCATENATE("SALDO SALARIO - ",Cadastro!B18," Dia(s)"),"SALDO SALARIO - ")</f>
         <v>SALDO SALARIO - 15 Dia(s)</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="7">
         <f>Cadastro!E4</f>
         <v>500.00000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="25">
         <f>SUM(J10:J17)</f>
         <v>5338.666666666667</v>
@@ -1585,34 +1588,34 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="7">
         <f>IF(Cadastro!F4 &lt; 0,-Cadastro!F4,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="7">
         <f>-Cadastro!E10</f>
         <v>200</v>
@@ -1636,17 +1639,17 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="25">
         <f>SUM(J22:J24)</f>
         <v>350</v>
@@ -1706,105 +1709,105 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="str">
+      <c r="A30" s="70" t="str">
         <f>IF(AND(Cadastro!B5&lt;&gt;0,Cadastro!B6&lt;&gt;0),CONCATENATE("Eu ",UPPER(Cadastro!B4),", inscrito no CPF sob nº ",TEXT(Cadastro!B5,"000"".""000"".""000-00"),," e RG nº ",TEXT(Cadastro!B6,"00"".""000"".""000""-""0"),", declaro ter recebido de ",UPPER(Cadastro!B2)," a importância supra de R$ ",ROUND(Recibo!J27,2)," proveniente ao pagamento do meu tempo de serviço compreendendo o período de ",Cadastro!B7,"."),IF(AND(Cadastro!B5&lt;&gt;0,Cadastro!B6=0),CONCATENATE("Eu ",Cadastro!B4,", inscrito no CPF sob nº ",TEXT(Cadastro!B5,"000"".""000"".""000-00"),", declaro ter recebido de ",Cadastro!B2," a importância supra de R$ ",ROUND(Recibo!J27,2)," proveniente ao pagamento do meu tempo de serviço compreendendo o período de ",Cadastro!B7,"."),CONCATENATE("Eu ",Cadastro!B4,", inscrito no ","RG sob nº ",TEXT(Cadastro!B6,"00"".""000"".""000""-""0"),", declaro ter recebido de ",Cadastro!B2," a importância supra de R$ ",ROUND(Recibo!J27,2)," proveniente ao pagamento do meu tempo de serviço compreendendo o período de ",Cadastro!B7,".")))</f>
         <v>Eu ALISSON BRITO COSTA, inscrito no CPF sob nº 038.809.745-58 e RG nº 03.376.043-8, declaro ter recebido de OSVALDO CONTABILIDADE LTDA ME a importância supra de R$ 4988,67 proveniente ao pagamento do meu tempo de serviço compreendendo o período de 04/01/2013 a 17/10/2014.</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="84"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="84"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="84"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="84"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="81"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="81"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1820,22 +1823,22 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="str">
+      <c r="A39" s="61" t="str">
         <f>UPPER(Cadastro!B8)</f>
         <v>ITABAIANA/SE</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77" t="str">
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63" t="str">
         <f ca="1">CONCATENATE(TEXT(Cadastro!B9,"dd")," de ",UPPER( TEXT(Cadastro!B9, "mmmm" ) )," de ",TEXT(Cadastro!B9,"aaaa"))</f>
-        <v>15 de AGOSTO de 2015</v>
-      </c>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
+        <v>22 de OUTUBRO de 2015</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="64"/>
       <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,48 +1856,48 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="61"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="str">
+      <c r="A42" s="56" t="str">
         <f>UPPER(Cadastro!B4)</f>
         <v>ALISSON BRITO COSTA</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="61"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="str">
+      <c r="A43" s="75" t="str">
         <f>CONCATENATE("CPF: ",TEXT(Cadastro!B6,"00"".""000"".""000""-""0"))</f>
         <v>CPF: 03.376.043-8</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="64"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
@@ -1909,37 +1912,37 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60" t="s">
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57" t="str">
-        <f>Cadastro!B3</f>
-        <v>Jose Joeliton Lisboa Brito</v>
-      </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="85" t="str">
+        <f>UPPER(Cadastro!B2)</f>
+        <v>OSVALDO CONTABILIDADE LTDA ME</v>
+      </c>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="86"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
@@ -1947,11 +1950,11 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="86"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
@@ -1991,6 +1994,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F46:J47"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A1:J1"/>
@@ -2007,16 +2020,6 @@
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A30:J34"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.83" right="0.83" top="0.5" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -2047,10 +2050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -2179,7 +2182,7 @@
       </c>
       <c r="B9" s="35">
         <f ca="1">TODAY()</f>
-        <v>42231</v>
+        <v>42299</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>64</v>
@@ -2209,10 +2212,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
